--- a/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
+++ b/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +600,11 @@
           <t>Municipality Classification</t>
         </is>
       </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -660,13 +666,11 @@
 Revised: 5/18/2025</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>PB-015-2024</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>October 2, 2024</t>
@@ -723,11 +727,82 @@
       <c r="AD2" t="n">
         <v>0.2000000000000001</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr">
         <is>
           <t>1st</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AH2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
+++ b/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
@@ -706,26 +706,8 @@
           <t>With additional works amounting to Php 928,033.23 due to revision of plans</t>
         </is>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
       <c r="AC2" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.2000000000000001</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>

--- a/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
+++ b/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,174 +552,119 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS ACCOMPLISHMENT</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>DIFFERENCE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Date of Completion</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Month Completed</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Municipality Classification</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Ilocos Sur</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>100684</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Sta. Cruz CS</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>SANTA CRUZ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>PROPOSED TWO (2) - STOREY ALTERNATIVE LEARNING SYSTEM (ALS) BUILDING (22.50m x 9.50m) - with Roof Deck</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3" t="n">
         <v>12871493.45</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Original: 9,322,239.10
 Revised: Php 10,250,272.33</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Original: 4/18/2025
 Revised: 5/18/2025</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr"/>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>PB-015-2024</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr"/>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>October 2, 2024</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>October 9, 2024</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>October 22, 2024</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>October 30, 2024</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>MA Tejada COnstruction</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>With additional works amounting to Php 928,033.23 due to revision of plans</t>
         </is>
       </c>
-      <c r="AC2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
+      <c r="X2" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AH2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="X2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
+++ b/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,13 +62,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,236 +443,263 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="104" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="51" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
+    <col width="40" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="31" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="18" customWidth="1" min="19" max="19"/>
+    <col width="33" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
+    <col width="76" customWidth="1" min="23" max="23"/>
+    <col width="28" customWidth="1" min="24" max="24"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Division</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>School ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>School Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Municipality</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Leg District</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>No. of Sites</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Scope of Work</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Total Allocation</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Ilocos Sur</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>100684</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Sta. Cruz CS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>SANTA CRUZ</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>PROPOSED TWO (2) - STOREY ALTERNATIVE LEARNING SYSTEM (ALS) BUILDING (22.50m x 9.50m) - with Roof Deck</t>
         </is>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>12871493.45</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Original: 9,322,239.10
 Revised: Php 10,250,272.33</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>Original: 4/18/2025
 Revised: 5/18/2025</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr"/>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr"/>
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>PB-015-2024</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr"/>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr"/>
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>October 2, 2024</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>October 9, 2024</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>October 22, 2024</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>October 30, 2024</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>MA Tejada COnstruction</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>With additional works amounting to Php 928,033.23 due to revision of plans</t>
         </is>
       </c>
-      <c r="X2" s="3" t="n"/>
+      <c r="X2" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
+++ b/Filtered_By_Region/Region I/Region I_ALS-CLC.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -449,261 +449,270 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="104" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="51" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="26" customWidth="1" min="12" max="12"/>
-    <col width="40" customWidth="1" min="13" max="13"/>
-    <col width="27" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="104" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="51" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="26" customWidth="1" min="13" max="13"/>
+    <col width="40" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
     <col width="13" customWidth="1" min="16" max="16"/>
-    <col width="31" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="18" customWidth="1" min="19" max="19"/>
-    <col width="33" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="24" customWidth="1" min="22" max="22"/>
-    <col width="76" customWidth="1" min="23" max="23"/>
-    <col width="28" customWidth="1" min="24" max="24"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="31" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="18" customWidth="1" min="20" max="20"/>
+    <col width="33" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="24" customWidth="1" min="23" max="23"/>
+    <col width="76" customWidth="1" min="24" max="24"/>
+    <col width="28" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>INDEX (DO NOT MODIFY)</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Division</t>
+          <t>REGION</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>School ID</t>
+          <t>DIVISION</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>School Name</t>
+          <t>SCHOOL ID</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Municipality</t>
+          <t>SCHOOL NAME</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Leg District</t>
+          <t>MUNICIPALITY</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>No. of Sites</t>
+          <t>LEG DISTRICT</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Scope of Work</t>
+          <t>NO. OF SITES</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Total Allocation</t>
+          <t>SCOPE OF WORK</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>TOTAL ALLOCATION</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="X1" s="3" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Ilocos Sur</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="D2" s="4" t="n">
         <v>100684</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Sta. Cruz CS</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>SANTA CRUZ</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>PROPOSED TWO (2) - STOREY ALTERNATIVE LEARNING SYSTEM (ALS) BUILDING (22.50m x 9.50m) - with Roof Deck</t>
         </is>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="J2" s="4" t="n">
         <v>12871493.45</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Original: 9,322,239.10
 Revised: Php 10,250,272.33</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="M2" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>Original: 4/18/2025
 Revised: 5/18/2025</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr"/>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr"/>
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>PB-015-2024</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr"/>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>October 2, 2024</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>October 9, 2024</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>October 22, 2024</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>October 30, 2024</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>MA Tejada COnstruction</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>With additional works amounting to Php 928,033.23 due to revision of plans</t>
         </is>
       </c>
-      <c r="X2" s="5" t="n"/>
+      <c r="Y2" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="X2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="Y2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
